--- a/biology/Médecine/Eugène_Azam/Eugène_Azam.xlsx
+++ b/biology/Médecine/Eugène_Azam/Eugène_Azam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Azam</t>
+          <t>Eugène_Azam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Azam (1822-1899) est un chirurgien bordelais, professeur de médecine qui s'intéresse à la  psychologie et à l'hypnose.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Azam</t>
+          <t>Eugène_Azam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Marie-Étienne-Eugène Azam naît à Bordeaux le 28 mai 1822. Son père, Jean-Sixte Azam, est né à Cologne (Gers) en 1782 et mort à Bordeaux en 1854, était médecin de l'Asile public des femmes aliénées de Bordeaux.
 Eugène Azam fait des études de médecine et il est reçu docteur en médecine à Paris le 10 juillet 1848.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Azam</t>
+          <t>Eugène_Azam</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,21 +562,93 @@
           <t>Carrière professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Azam fut successivement médecin adjoint de l'Asile public des aliénées de Bordeaux , puis professeur de clinique externe de l’École de médecine de Bordeaux.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azam fut successivement médecin adjoint de l'Asile public des aliénées de Bordeaux , puis professeur de clinique externe de l’École de médecine de Bordeaux.
 En 1872 il organise à Bordeaux, avec son ami Paul Broca, le premier Congrès de la société française pour l'avancement des sciences. Il fut également président de :
 Société de Médecins de Bordeaux (1863)
 Société des sciences physiques et naturelles de Bordeaux (1866)
 Société Philomathique de Bordeaux (1880-1881)
-Société Archéologique de Bordeaux (1881-1882)[1]
+Société Archéologique de Bordeaux (1881-1882)
 Académie nationale des sciences, belles-lettres et arts de Bordeaux (1888)
 Eugène Azam est nommé : officier de l'Académie en 1865, officier d'instruction publique en 1869 et chevalier de la Légion d'honneur en 1872.
-Travail clinique
-Avec Alfred Velpeau et Paul Broca, il a contribué à faire connaitre en France les travaux de James Braid sur l'hypnose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eugène_Azam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Azam</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Travail clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec Alfred Velpeau et Paul Broca, il a contribué à faire connaitre en France les travaux de James Braid sur l'hypnose.
 Azam fut le premier à décrire un cas de « personnalité multiple » : Félida X. En l'espace de huit ans, il publia trois ouvrages sur cette patiente, qui présentait des « personnalités alternantes », état proche de ce qui devait être nommé plus tard le trouble de la personnalité multiple. Pendant plus de quarante ans il poursuivit des recherches sur l'hypnotisme, la double conscience et les altérations de la personnalité.
-Publications de Eugène Azam
-De la folie sympathique provoquée ou entretenue par les lésions organiques de l'utérus et de ses annexes, Bordeaux, G. Gounouilhou, 1858, 52 p. (lire en ligne sur Gallica).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eugène_Azam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Azam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications de Eugène Azam</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>De la folie sympathique provoquée ou entretenue par les lésions organiques de l'utérus et de ses annexes, Bordeaux, G. Gounouilhou, 1858, 52 p. (lire en ligne sur Gallica).
 « Note sur le sommeil nerveux ou Hypnotisme », Archives générales de médecine,‎ janvier 1860, p. 48.
 « De la Mort subite par embolie pulmonaire dans les contusions et les fractures », Journal de Médecine de Bordeaux,‎ 1864, p. 48.
 « Éloge de F.-A. Bazin, fondateur de la Société des sciences physiques et naturelles de Bordeaux », Mem. Soc. Sc. Phys. et Nat. de Bordeaux, vol. 4, no 1,‎ janvier 1866, p. 30 (lire en ligne sur Gallica).
